--- a/FCI_functions/MISCONCEPTIONS_BY_QUESTION.xlsx
+++ b/FCI_functions/MISCONCEPTIONS_BY_QUESTION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mayapatel/Documents/_/honours/Honours-FCI-data/FCI_functions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D961417A-DD21-F446-B6D7-A9CBA14A5251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C88EDC-020A-A74C-9322-1A2291467170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="440" windowWidth="18480" windowHeight="14040" activeTab="2" xr2:uid="{E93DC021-6F28-C04A-B6FA-C4359F1FFA13}"/>
+    <workbookView xWindow="40" yWindow="440" windowWidth="24940" windowHeight="14520" activeTab="2" xr2:uid="{E93DC021-6F28-C04A-B6FA-C4359F1FFA13}"/>
   </bookViews>
   <sheets>
     <sheet name="Q5" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="71">
   <si>
     <t>POST Q5 2014 112</t>
   </si>
@@ -242,13 +242,19 @@
   </si>
   <si>
     <t xml:space="preserve">FEMALE </t>
+  </si>
+  <si>
+    <t>PRE Q17 2018 111</t>
+  </si>
+  <si>
+    <t>PRE Q17 2018 112</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -456,16 +462,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -494,7 +500,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9042400" y="4521200"/>
+          <a:off x="9385300" y="4394200"/>
           <a:ext cx="7493000" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -609,15 +615,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>764731</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>163871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>110476</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47932</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -644,8 +650,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9080500" y="406400"/>
-          <a:ext cx="5943600" cy="1511300"/>
+          <a:off x="9777634" y="163871"/>
+          <a:ext cx="5900584" cy="1522771"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -657,15 +663,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>749709</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>49844</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>648109</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>37144</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -688,8 +694,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9461500" y="2705100"/>
-          <a:ext cx="7327900" cy="1409700"/>
+          <a:off x="9762612" y="2098231"/>
+          <a:ext cx="7272594" cy="1421171"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1000,16 +1006,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1D0614-9B2B-464F-A09B-428A43D31E39}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:K31"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
@@ -1041,7 +1049,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1076,7 +1084,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1111,7 +1119,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>48</v>
@@ -1141,7 +1149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1176,7 +1184,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1211,7 +1219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1246,7 +1254,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1278,7 +1286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1313,7 +1321,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11">
         <v>56</v>
@@ -1346,7 +1354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1381,7 +1389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1416,7 +1424,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1451,7 +1459,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1486,12 +1494,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
@@ -1523,7 +1531,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1558,7 +1566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1593,7 +1601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1628,7 +1636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>14</v>
       </c>
@@ -1648,7 +1656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -1683,12 +1691,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>15</v>
       </c>
@@ -1720,7 +1728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>13</v>
       </c>
@@ -1755,7 +1763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1790,7 +1798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1825,7 +1833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1860,7 +1868,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>14</v>
       </c>
@@ -1902,18 +1910,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B67D459-7B1E-254B-997E-D05F80DD8020}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:K32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1945,7 +1956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1980,7 +1991,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2015,7 +2026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5">
         <v>48</v>
@@ -2048,7 +2059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2083,7 +2094,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -2118,7 +2129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -2153,7 +2164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
@@ -2185,7 +2196,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -2220,7 +2231,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12">
         <v>57</v>
@@ -2253,7 +2264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -2288,7 +2299,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2323,7 +2334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2358,7 +2369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -2393,12 +2404,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
@@ -2430,7 +2441,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>13</v>
       </c>
@@ -2465,7 +2476,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
@@ -2500,7 +2511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -2535,7 +2546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>14</v>
       </c>
@@ -2570,7 +2581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
@@ -2590,12 +2601,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>25</v>
       </c>
@@ -2627,7 +2638,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>13</v>
       </c>
@@ -2662,7 +2673,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>12</v>
       </c>
@@ -2697,7 +2708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>10</v>
       </c>
@@ -2732,7 +2743,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>14</v>
       </c>
@@ -2767,7 +2778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>11</v>
       </c>
@@ -2812,13 +2823,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8F807F-D162-F74C-918E-C76E634AF24F}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:K31"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>35</v>
       </c>
@@ -2832,7 +2846,7 @@
         <v>38</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>40</v>
@@ -2847,10 +2861,10 @@
         <v>43</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -2885,7 +2899,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3">
         <v>48</v>
@@ -2918,7 +2932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2953,7 +2967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2988,7 +3002,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3023,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -3058,7 +3072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>55</v>
       </c>
@@ -3090,7 +3104,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -3125,7 +3139,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11">
         <v>57</v>
@@ -3158,7 +3172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -3193,7 +3207,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -3228,7 +3242,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -3263,7 +3277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3298,12 +3312,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
         <v>35</v>
@@ -3336,7 +3350,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
@@ -3371,7 +3385,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>10</v>
       </c>
@@ -3406,7 +3420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>12</v>
       </c>
@@ -3441,7 +3455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>11</v>
       </c>
@@ -3474,7 +3488,7 @@
       </c>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>13</v>
       </c>
@@ -3509,12 +3523,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>35</v>
       </c>
@@ -3546,7 +3560,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>14</v>
       </c>
@@ -3581,7 +3595,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -3616,7 +3630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>12</v>
       </c>
@@ -3651,7 +3665,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>11</v>
       </c>
@@ -3683,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>13</v>
       </c>
